--- a/fmcg-retail-sales-dataset.xlsx
+++ b/fmcg-retail-sales-dataset.xlsx
@@ -5,25 +5,25 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkras\Desktop\sql_datasets\fmcg-retail-sale-dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkras\Desktop\sql_datasets\fmcg-retail-sales-dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8E532C-BDFF-4065-A081-F68F1CA3F364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36263AF0-E023-4A97-A0A2-CB72EE8A0E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fmcg_retail_dataset" sheetId="1" r:id="rId1"/>
-    <sheet name="Pivot tables" sheetId="2" r:id="rId2"/>
-    <sheet name="Dashoard" sheetId="3" r:id="rId3"/>
+    <sheet name="pivot_tables" sheetId="2" r:id="rId2"/>
+    <sheet name="sales_dashoard" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fmcg_retail_dataset!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fmcg_retail_dataset!$A$1:$G$1001</definedName>
     <definedName name="Slicer_Category">#N/A</definedName>
     <definedName name="Slicer_Promo">#N/A</definedName>
     <definedName name="Slicer_Store_ID">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
@@ -38,12 +38,21 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -123,12 +132,6 @@
     <t>Coca-Cola 1L</t>
   </si>
   <si>
-    <t>Private Label Water 1.5L</t>
-  </si>
-  <si>
-    <t>Private Label Bread 500g</t>
-  </si>
-  <si>
     <t>Bakery</t>
   </si>
   <si>
@@ -174,14 +177,17 @@
     <t>(All)</t>
   </si>
   <si>
-    <t>FMCG Retailer Dashboard</t>
+    <t>Sus Water 1.5L</t>
+  </si>
+  <si>
+    <t>Dun Bread 500g</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,16 +322,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,12 +503,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -672,7 +664,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -680,9 +672,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -755,7 +744,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[fmcg-retail-sales-dataset.xlsx]Pivot tables!PivotTable1</c:name>
+    <c:name>[fmcg-retail-sales-dataset.xlsx]pivot_tables!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1169,7 +1158,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pivot tables'!$B$3</c:f>
+              <c:f>pivot_tables!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1190,7 +1179,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Pivot tables'!$A$4:$A$19</c:f>
+              <c:f>pivot_tables!$A$4:$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -1218,7 +1207,7 @@
                   <c:v>KitKat 4 Finger</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Private Label Bread 500g</c:v>
+                  <c:v>Dun Bread 500g</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Colgate Toothpaste 100ml</c:v>
@@ -1227,7 +1216,7 @@
                   <c:v>Ariel Pods 20 pack</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Private Label Water 1.5L</c:v>
+                  <c:v>Sus Water 1.5L</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Lays Chips 70g</c:v>
@@ -1243,7 +1232,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot tables'!$B$4:$B$19</c:f>
+              <c:f>pivot_tables!$B$4:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1534,7 +1523,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[fmcg-retail-sales-dataset.xlsx]Pivot tables!PivotTable2</c:name>
+    <c:name>[fmcg-retail-sales-dataset.xlsx]pivot_tables!PivotTable2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1776,7 +1765,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pivot tables'!$B$21</c:f>
+              <c:f>pivot_tables!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1797,53 +1786,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Pivot tables'!$A$22:$A$28</c:f>
+              <c:f>pivot_tables!$A$22:$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Bakery</c:v>
+                  <c:v>Beverage</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Beverage</c:v>
+                  <c:v>Confectionery</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Confectionery</c:v>
+                  <c:v>Household</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Household</c:v>
+                  <c:v>Personal Care</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Personal Care</c:v>
+                  <c:v>Snacks</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Snacks</c:v>
+                  <c:v>Bakery</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot tables'!$B$22:$B$28</c:f>
+              <c:f>pivot_tables!$B$22:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1893</c:v>
+                  <c:v>12334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12334</c:v>
+                  <c:v>4220</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4220</c:v>
+                  <c:v>4037</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4037</c:v>
+                  <c:v>3869</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3869</c:v>
+                  <c:v>3546</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3546</c:v>
+                  <c:v>1893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2087,7 +2076,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[fmcg-retail-sales-dataset.xlsx]Pivot tables!PivotTable3</c:name>
+    <c:name>[fmcg-retail-sales-dataset.xlsx]pivot_tables!PivotTable3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -16966,7 +16955,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pivot tables'!$B$39</c:f>
+              <c:f>pivot_tables!$B$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16989,7 +16978,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Pivot tables'!$A$40:$A$42</c:f>
+              <c:f>pivot_tables!$A$40:$A$42</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -17003,7 +16992,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot tables'!$B$40:$B$42</c:f>
+              <c:f>pivot_tables!$B$40:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -17255,7 +17244,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[fmcg-retail-sales-dataset.xlsx]Pivot tables!PivotTable4</c:name>
+    <c:name>[fmcg-retail-sales-dataset.xlsx]pivot_tables!PivotTable4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -17384,7 +17373,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pivot tables'!$B$53</c:f>
+              <c:f>pivot_tables!$B$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -17407,7 +17396,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Pivot tables'!$A$54:$A$63</c:f>
+              <c:f>pivot_tables!$A$54:$A$63</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -17442,7 +17431,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot tables'!$B$54:$B$63</c:f>
+              <c:f>pivot_tables!$B$54:$B$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -17715,8 +17704,8 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[fmcg-retail-sales-dataset.xlsx]Pivot tables!PivotTable1</c:name>
-    <c:fmtId val="2"/>
+    <c:name>[fmcg-retail-sales-dataset.xlsx]pivot_tables!PivotTable1</c:name>
+    <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -18229,6 +18218,118 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -18241,7 +18342,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pivot tables'!$B$3</c:f>
+              <c:f>pivot_tables!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -18262,7 +18363,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Pivot tables'!$A$4:$A$19</c:f>
+              <c:f>pivot_tables!$A$4:$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -18290,7 +18391,7 @@
                   <c:v>KitKat 4 Finger</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Private Label Bread 500g</c:v>
+                  <c:v>Dun Bread 500g</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Colgate Toothpaste 100ml</c:v>
@@ -18299,7 +18400,7 @@
                   <c:v>Ariel Pods 20 pack</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Private Label Water 1.5L</c:v>
+                  <c:v>Sus Water 1.5L</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Lays Chips 70g</c:v>
@@ -18315,7 +18416,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot tables'!$B$4:$B$19</c:f>
+              <c:f>pivot_tables!$B$4:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -18369,7 +18470,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CF5D-4770-A17C-D3528F7B23E9}"/>
+              <c16:uniqueId val="{00000000-4975-4BA0-86B9-F33F46916055}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -18501,37 +18602,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -18579,7 +18649,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -18606,8 +18675,8 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[fmcg-retail-sales-dataset.xlsx]Pivot tables!PivotTable2</c:name>
-    <c:fmtId val="2"/>
+    <c:name>[fmcg-retail-sales-dataset.xlsx]pivot_tables!PivotTable2</c:name>
+    <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -18948,6 +19017,118 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -18960,7 +19141,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pivot tables'!$B$21</c:f>
+              <c:f>pivot_tables!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -18981,60 +19162,60 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Pivot tables'!$A$22:$A$28</c:f>
+              <c:f>pivot_tables!$A$22:$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Bakery</c:v>
+                  <c:v>Beverage</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Beverage</c:v>
+                  <c:v>Confectionery</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Confectionery</c:v>
+                  <c:v>Household</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Household</c:v>
+                  <c:v>Personal Care</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Personal Care</c:v>
+                  <c:v>Snacks</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Snacks</c:v>
+                  <c:v>Bakery</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot tables'!$B$22:$B$28</c:f>
+              <c:f>pivot_tables!$B$22:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1893</c:v>
+                  <c:v>12334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12334</c:v>
+                  <c:v>4220</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4220</c:v>
+                  <c:v>4037</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4037</c:v>
+                  <c:v>3869</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3869</c:v>
+                  <c:v>3546</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3546</c:v>
+                  <c:v>1893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-97C2-4A1E-A51D-586C782AAE5F}"/>
+              <c16:uniqueId val="{00000000-FCFF-4D3B-A5C3-124C754DC4A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -19166,37 +19347,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -19244,7 +19394,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -19271,8 +19420,8 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[fmcg-retail-sales-dataset.xlsx]Pivot tables!PivotTable4</c:name>
-    <c:fmtId val="2"/>
+    <c:name>[fmcg-retail-sales-dataset.xlsx]pivot_tables!PivotTable4</c:name>
+    <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -19462,6 +19611,124 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -19526,7 +19793,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pivot tables'!$B$53</c:f>
+              <c:f>pivot_tables!$B$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -19549,7 +19816,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Pivot tables'!$A$54:$A$63</c:f>
+              <c:f>pivot_tables!$A$54:$A$63</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -19584,7 +19851,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot tables'!$B$54:$B$63</c:f>
+              <c:f>pivot_tables!$B$54:$B$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -19621,7 +19888,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3EB5-4051-82D6-3EB04767AF52}"/>
+              <c16:uniqueId val="{00000000-8C03-4C28-A4E9-0B3B766CE3D3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -23804,139 +24071,100 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>205332</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69FE24FD-7D73-4906-8207-C69F53B195BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B67EE79-4CFE-42AE-A0E4-6AC13EFDC251}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FF776F8-CF45-4B9B-8B41-FA7DEC5E33D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A535C6D7-EB32-4DC0-84BA-E6A92446FB6C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6350" y="19050"/>
+          <a:ext cx="8947150" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="002060"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FMCG Retailer Dashboard</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="6" name="Promo">
+            <xdr:cNvPr id="3" name="Store_ID 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BF8A094-BAD1-47D2-BFB0-F0B55EC125C7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{382BAB13-83CF-448C-80FB-E2B9FBCF2E20}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23948,7 +24176,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Promo"/>
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Store_ID 2"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -23963,8 +24191,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6350" y="539567"/>
-              <a:ext cx="1214783" cy="888539"/>
+              <a:off x="0" y="2725882"/>
+              <a:ext cx="1215159" cy="1777423"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -23997,24 +24225,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>139701</xdr:rowOff>
+      <xdr:colOff>2853</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>165101</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>598833</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="7" name="Store_ID">
+            <xdr:cNvPr id="4" name="Promo 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{389BBA3B-DBE0-414F-8E5B-BB0D3E59CA34}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E138AE-3ADE-4447-A888-D6EE8875997F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24026,7 +24254,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Store_ID"/>
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Promo 1"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -24041,8 +24269,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6350" y="1428107"/>
-              <a:ext cx="1214783" cy="1681922"/>
+              <a:off x="2853" y="1675245"/>
+              <a:ext cx="1207889" cy="1076037"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -24075,24 +24303,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9768</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>97692</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>603249</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="8" name="Category">
+            <xdr:cNvPr id="5" name="Category 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE28C92B-0164-4336-8AFE-314C58EE2C18}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F671D32-2219-4583-A395-BF0A670EF23D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24104,7 +24332,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Category"/>
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Category 1"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -24119,8 +24347,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6350" y="3116378"/>
-              <a:ext cx="1218201" cy="2134937"/>
+              <a:off x="0" y="4496955"/>
+              <a:ext cx="1215158" cy="2178627"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -24150,11 +24378,598 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>519950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B75B797E-CABE-4AEE-8759-AB6E56BF7AA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6350" y="768350"/>
+          <a:ext cx="2952000" cy="844550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="002060"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-150" sz="1400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Units Sold</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>73550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>452750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>33866</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="pivot_tables!A72">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ED3100B-FD58-4FD1-BB55-7FADD10297D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683150" y="1066800"/>
+          <a:ext cx="1598400" cy="440266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="002060"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:fld id="{9C7043D9-18A9-4E59-910D-3BA71A809ED7}" type="TxLink">
+            <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:t>29899</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>469150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA544A22-B549-44BF-9F74-24D12391F535}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3003550" y="774700"/>
+          <a:ext cx="2952000" cy="844550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="002060"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-150" sz="1400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Best Selling Product</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22218</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>402482</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>39150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="pivot_tables!A4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE03338-0971-47E1-A7A5-1ED1697F98F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3679818" y="1073150"/>
+          <a:ext cx="1599464" cy="439200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="002060"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{FCBC4079-B90C-4770-98FB-FE3CA205F7FD}" type="TxLink">
+            <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>Pepsi 1L</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="2400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>178900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A546A33-9895-4C90-A773-045EFFE23F4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>414500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>178900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C70D05D3-ADC6-4F08-8A2C-F84BE301D1DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA9F7E2-B9BF-49C6-95AE-83E5A4C09C8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>418350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7E10B8C-36D1-4BE4-A74D-51D9CD8BA80D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6000750" y="774700"/>
+          <a:ext cx="2952000" cy="844550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="002060"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-150" sz="1400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Best Selling Category</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581018</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>351682</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>39150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="pivot_tables!A22">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F5D9DF8-A6A5-4BD3-82B1-ED29505048BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6677018" y="1073150"/>
+          <a:ext cx="1599464" cy="439200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="002060"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:fld id="{F2564772-CA2B-40F1-B484-205BAEA0CD6D}" type="TxLink">
+            <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:t>Beverage</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="V Dim" refreshedDate="45916.414702314818" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="1000" xr:uid="{00000000-000A-0000-FFFF-FFFF09000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="V Dim" refreshedDate="45918.540275810185" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="1000" xr:uid="{00000000-000A-0000-FFFF-FFFF09000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1001" sheet="fmcg_retail_dataset"/>
   </cacheSource>
@@ -24787,7 +25602,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Product" numFmtId="0">
-      <sharedItems count="15">
+      <sharedItems count="17">
         <s v="Colgate Toothpaste 100ml"/>
         <s v="Lays Chips 70g"/>
         <s v="Pepsi 1L"/>
@@ -24800,9 +25615,11 @@
         <s v="Nescafe Instant 200g"/>
         <s v="Fanta 500ml"/>
         <s v="Coca-Cola 1L"/>
-        <s v="Private Label Water 1.5L"/>
-        <s v="Private Label Bread 500g"/>
+        <s v="Sus Water 1.5L"/>
+        <s v="Dun Bread 500g"/>
         <s v="Milka Chocolate 100g"/>
+        <s v="Private Label Water 1.5L" u="1"/>
+        <s v="Private Label Bread 500g" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Category" numFmtId="0">
@@ -24858,7 +25675,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1000">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1000">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -33863,7 +34680,508 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A21:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="7">
+        <item x="5"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Units_Sold" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0">
@@ -34250,7 +35568,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="16">
+      <items count="18">
         <item x="7"/>
         <item x="11"/>
         <item x="0"/>
@@ -34264,8 +35582,10 @@
         <item x="9"/>
         <item x="2"/>
         <item x="3"/>
+        <item m="1" x="16"/>
+        <item m="1" x="15"/>
+        <item x="12"/>
         <item x="13"/>
-        <item x="12"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -34347,7 +35667,7 @@
       <x v="7"/>
     </i>
     <i>
-      <x v="13"/>
+      <x v="16"/>
     </i>
     <i>
       <x v="2"/>
@@ -34356,7 +35676,7 @@
       <x/>
     </i>
     <i>
-      <x v="14"/>
+      <x v="15"/>
     </i>
     <i>
       <x v="8"/>
@@ -34387,7 +35707,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="7" series="1">
+    <chartFormat chart="4" format="9" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -34409,8 +35729,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000003000000}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000003000000}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A53:B63" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -34888,7 +36208,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
+    <chartFormat chart="4" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -34910,7 +36230,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A39:B42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
@@ -35298,7 +36618,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="16">
+      <items count="18">
         <item x="7"/>
         <item x="11"/>
         <item x="0"/>
@@ -35312,8 +36632,10 @@
         <item x="9"/>
         <item x="2"/>
         <item x="3"/>
+        <item m="1" x="16"/>
+        <item m="1" x="15"/>
+        <item x="12"/>
         <item x="13"/>
-        <item x="12"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -35412,9 +36734,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A21:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DFD5DFAE-1390-450F-BFC4-0690786E9D7C}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A71:A72" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0">
       <items count="369">
@@ -35799,27 +37121,8 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="16">
-        <item x="7"/>
-        <item x="11"/>
-        <item x="0"/>
-        <item x="8"/>
-        <item x="4"/>
-        <item x="10"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="14"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
       <items count="7">
         <item x="5"/>
         <item x="2"/>
@@ -35839,51 +37142,27 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
+  <rowItems count="1">
+    <i/>
   </rowItems>
   <colItems count="1">
     <i/>
@@ -35892,7 +37171,7 @@
     <dataField name="Sum of Units_Sold" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="2">
-    <chartFormat chart="0" format="2" series="1">
+    <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -35901,7 +37180,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="4" series="1">
+    <chartFormat chart="2" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -35924,8 +37203,32 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Promo" xr10:uid="{00000000-0013-0000-FFFF-FFFF01000000}" sourceName="Promo">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Store_ID" xr10:uid="{00000000-0013-0000-FFFF-FFFF02000000}" sourceName="Store_ID">
   <pivotTables>
+    <pivotTable tabId="2" name="PivotTable1"/>
+    <pivotTable tabId="2" name="PivotTable2"/>
+    <pivotTable tabId="2" name="PivotTable3"/>
+    <pivotTable tabId="2" name="PivotTable4"/>
+    <pivotTable tabId="2" name="PivotTable5"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="724035838">
+      <items count="5">
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="3" s="1"/>
+        <i x="4" s="1"/>
+        <i x="2" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Promo" xr10:uid="{9C50EDD8-4690-4F35-AE0C-E84787B38615}" sourceName="Promo">
+  <pivotTables>
+    <pivotTable tabId="2" name="PivotTable5"/>
     <pivotTable tabId="2" name="PivotTable1"/>
     <pivotTable tabId="2" name="PivotTable2"/>
     <pivotTable tabId="2" name="PivotTable3"/>
@@ -35942,31 +37245,10 @@
 </slicerCacheDefinition>
 </file>
 
-<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Store_ID" xr10:uid="{00000000-0013-0000-FFFF-FFFF02000000}" sourceName="Store_ID">
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Category" xr10:uid="{C187E60A-B91C-4A78-9493-506FA7278A58}" sourceName="Category">
   <pivotTables>
-    <pivotTable tabId="2" name="PivotTable1"/>
-    <pivotTable tabId="2" name="PivotTable2"/>
-    <pivotTable tabId="2" name="PivotTable3"/>
-    <pivotTable tabId="2" name="PivotTable4"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="724035838">
-      <items count="5">
-        <i x="0" s="1"/>
-        <i x="1" s="1"/>
-        <i x="3" s="1"/>
-        <i x="4" s="1"/>
-        <i x="2" s="1"/>
-      </items>
-    </tabular>
-  </data>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Category" xr10:uid="{00000000-0013-0000-FFFF-FFFF03000000}" sourceName="Category">
-  <pivotTables>
+    <pivotTable tabId="2" name="PivotTable5"/>
     <pivotTable tabId="2" name="PivotTable1"/>
     <pivotTable tabId="2" name="PivotTable2"/>
     <pivotTable tabId="2" name="PivotTable3"/>
@@ -35989,9 +37271,9 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Promo" xr10:uid="{00000000-0014-0000-FFFF-FFFF01000000}" cache="Slicer_Promo" caption="Promo" rowHeight="241300"/>
-  <slicer name="Store_ID" xr10:uid="{00000000-0014-0000-FFFF-FFFF02000000}" cache="Slicer_Store_ID" caption="Store_ID" rowHeight="241300"/>
-  <slicer name="Category" xr10:uid="{00000000-0014-0000-FFFF-FFFF03000000}" cache="Slicer_Category" caption="Category" rowHeight="241300"/>
+  <slicer name="Store_ID 2" xr10:uid="{8308F65B-6686-4525-9642-741BEC5BA31E}" cache="Slicer_Store_ID" caption="Store_ID" rowHeight="241300"/>
+  <slicer name="Promo 1" xr10:uid="{AB634F64-9675-4FD8-B2C1-0B5710B2070A}" cache="Slicer_Promo" caption="Promo" rowHeight="241300"/>
+  <slicer name="Category 1" xr10:uid="{71CBDA60-5DD2-457D-AD66-AB146239FC2D}" cache="Slicer_Category" caption="Category" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -36294,8 +37576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36984,7 +38266,7 @@
         <v>1002</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -37007,7 +38289,7 @@
         <v>1004</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
@@ -37030,10 +38312,10 @@
         <v>1002</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E32">
         <v>23</v>
@@ -37053,7 +38335,7 @@
         <v>1003</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
         <v>20</v>
@@ -37076,10 +38358,10 @@
         <v>1003</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E34">
         <v>34</v>
@@ -37214,10 +38496,10 @@
         <v>1003</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E40">
         <v>31</v>
@@ -37398,10 +38680,10 @@
         <v>1001</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D48" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E48">
         <v>31</v>
@@ -37421,7 +38703,7 @@
         <v>1002</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D49" t="s">
         <v>14</v>
@@ -37444,7 +38726,7 @@
         <v>1003</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D50" t="s">
         <v>20</v>
@@ -37467,7 +38749,7 @@
         <v>1001</v>
       </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
@@ -37536,10 +38818,10 @@
         <v>1005</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D54" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E54">
         <v>36</v>
@@ -37559,10 +38841,10 @@
         <v>1005</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D55" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E55">
         <v>31</v>
@@ -37697,7 +38979,7 @@
         <v>1004</v>
       </c>
       <c r="C61" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D61" t="s">
         <v>14</v>
@@ -37720,7 +39002,7 @@
         <v>1003</v>
       </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D62" t="s">
         <v>14</v>
@@ -37766,7 +39048,7 @@
         <v>1002</v>
       </c>
       <c r="C64" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D64" t="s">
         <v>14</v>
@@ -37881,7 +39163,7 @@
         <v>1005</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D69" t="s">
         <v>20</v>
@@ -38226,7 +39508,7 @@
         <v>1002</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D84" t="s">
         <v>20</v>
@@ -38318,7 +39600,7 @@
         <v>1004</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D88" t="s">
         <v>20</v>
@@ -38387,10 +39669,10 @@
         <v>1004</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D91" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E91">
         <v>27</v>
@@ -38433,7 +39715,7 @@
         <v>1002</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D93" t="s">
         <v>20</v>
@@ -38548,7 +39830,7 @@
         <v>1003</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D98" t="s">
         <v>20</v>
@@ -38870,7 +40152,7 @@
         <v>1002</v>
       </c>
       <c r="C112" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D112" t="s">
         <v>14</v>
@@ -39123,7 +40405,7 @@
         <v>1001</v>
       </c>
       <c r="C123" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D123" t="s">
         <v>14</v>
@@ -39238,7 +40520,7 @@
         <v>1005</v>
       </c>
       <c r="C128" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D128" t="s">
         <v>20</v>
@@ -39307,10 +40589,10 @@
         <v>1005</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D131" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E131">
         <v>28</v>
@@ -39399,10 +40681,10 @@
         <v>1004</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D135" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E135">
         <v>31</v>
@@ -39514,7 +40796,7 @@
         <v>1002</v>
       </c>
       <c r="C140" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D140" t="s">
         <v>14</v>
@@ -39606,7 +40888,7 @@
         <v>1003</v>
       </c>
       <c r="C144" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D144" t="s">
         <v>14</v>
@@ -39928,7 +41210,7 @@
         <v>1004</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D158" t="s">
         <v>20</v>
@@ -40043,7 +41325,7 @@
         <v>1004</v>
       </c>
       <c r="C163" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D163" t="s">
         <v>20</v>
@@ -40204,10 +41486,10 @@
         <v>1002</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D170" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E170">
         <v>37</v>
@@ -40388,7 +41670,7 @@
         <v>1005</v>
       </c>
       <c r="C178" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D178" t="s">
         <v>20</v>
@@ -40503,7 +41785,7 @@
         <v>1005</v>
       </c>
       <c r="C183" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D183" t="s">
         <v>14</v>
@@ -40595,10 +41877,10 @@
         <v>1003</v>
       </c>
       <c r="C187" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D187" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E187">
         <v>35</v>
@@ -40940,7 +42222,7 @@
         <v>1004</v>
       </c>
       <c r="C202" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D202" t="s">
         <v>20</v>
@@ -40986,7 +42268,7 @@
         <v>1005</v>
       </c>
       <c r="C204" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D204" t="s">
         <v>14</v>
@@ -41032,7 +42314,7 @@
         <v>1005</v>
       </c>
       <c r="C206" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D206" t="s">
         <v>20</v>
@@ -41101,10 +42383,10 @@
         <v>1001</v>
       </c>
       <c r="C209" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D209" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E209">
         <v>37</v>
@@ -41285,7 +42567,7 @@
         <v>1004</v>
       </c>
       <c r="C217" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D217" t="s">
         <v>14</v>
@@ -41469,7 +42751,7 @@
         <v>1004</v>
       </c>
       <c r="C225" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D225" t="s">
         <v>14</v>
@@ -41492,10 +42774,10 @@
         <v>1001</v>
       </c>
       <c r="C226" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D226" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E226">
         <v>28</v>
@@ -41538,7 +42820,7 @@
         <v>1002</v>
       </c>
       <c r="C228" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D228" t="s">
         <v>20</v>
@@ -41561,10 +42843,10 @@
         <v>1002</v>
       </c>
       <c r="C229" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D229" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E229">
         <v>31</v>
@@ -41837,10 +43119,10 @@
         <v>1005</v>
       </c>
       <c r="C241" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D241" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E241">
         <v>36</v>
@@ -41860,10 +43142,10 @@
         <v>1001</v>
       </c>
       <c r="C242" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D242" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E242">
         <v>31</v>
@@ -42481,7 +43763,7 @@
         <v>1005</v>
       </c>
       <c r="C269" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D269" t="s">
         <v>14</v>
@@ -42504,10 +43786,10 @@
         <v>1004</v>
       </c>
       <c r="C270" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D270" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E270">
         <v>32</v>
@@ -42596,7 +43878,7 @@
         <v>1003</v>
       </c>
       <c r="C274" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D274" t="s">
         <v>20</v>
@@ -42642,7 +43924,7 @@
         <v>1002</v>
       </c>
       <c r="C276" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D276" t="s">
         <v>14</v>
@@ -42872,10 +44154,10 @@
         <v>1002</v>
       </c>
       <c r="C286" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D286" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E286">
         <v>31</v>
@@ -42964,7 +44246,7 @@
         <v>1001</v>
       </c>
       <c r="C290" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D290" t="s">
         <v>14</v>
@@ -43056,10 +44338,10 @@
         <v>1002</v>
       </c>
       <c r="C294" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D294" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E294">
         <v>27</v>
@@ -43171,7 +44453,7 @@
         <v>1002</v>
       </c>
       <c r="C299" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D299" t="s">
         <v>20</v>
@@ -43217,7 +44499,7 @@
         <v>1003</v>
       </c>
       <c r="C301" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D301" t="s">
         <v>20</v>
@@ -43263,7 +44545,7 @@
         <v>1002</v>
       </c>
       <c r="C303" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D303" t="s">
         <v>20</v>
@@ -43309,7 +44591,7 @@
         <v>1004</v>
       </c>
       <c r="C305" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D305" t="s">
         <v>20</v>
@@ -43378,7 +44660,7 @@
         <v>1003</v>
       </c>
       <c r="C308" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D308" t="s">
         <v>14</v>
@@ -43539,7 +44821,7 @@
         <v>1004</v>
       </c>
       <c r="C315" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D315" t="s">
         <v>20</v>
@@ -43608,7 +44890,7 @@
         <v>1002</v>
       </c>
       <c r="C318" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D318" t="s">
         <v>20</v>
@@ -44022,10 +45304,10 @@
         <v>1002</v>
       </c>
       <c r="C336" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D336" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E336">
         <v>22</v>
@@ -44068,7 +45350,7 @@
         <v>1002</v>
       </c>
       <c r="C338" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D338" t="s">
         <v>20</v>
@@ -44091,7 +45373,7 @@
         <v>1002</v>
       </c>
       <c r="C339" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D339" t="s">
         <v>14</v>
@@ -44206,10 +45488,10 @@
         <v>1001</v>
       </c>
       <c r="C344" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D344" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E344">
         <v>27</v>
@@ -44390,10 +45672,10 @@
         <v>1004</v>
       </c>
       <c r="C352" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D352" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E352">
         <v>33</v>
@@ -44505,7 +45787,7 @@
         <v>1004</v>
       </c>
       <c r="C357" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D357" t="s">
         <v>14</v>
@@ -44551,7 +45833,7 @@
         <v>1003</v>
       </c>
       <c r="C359" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D359" t="s">
         <v>14</v>
@@ -44574,10 +45856,10 @@
         <v>1002</v>
       </c>
       <c r="C360" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D360" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E360">
         <v>29</v>
@@ -44689,10 +45971,10 @@
         <v>1005</v>
       </c>
       <c r="C365" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D365" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E365">
         <v>32</v>
@@ -44919,7 +46201,7 @@
         <v>1004</v>
       </c>
       <c r="C375" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D375" t="s">
         <v>20</v>
@@ -45057,7 +46339,7 @@
         <v>1003</v>
       </c>
       <c r="C381" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D381" t="s">
         <v>20</v>
@@ -45379,7 +46661,7 @@
         <v>1003</v>
       </c>
       <c r="C395" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D395" t="s">
         <v>20</v>
@@ -45425,7 +46707,7 @@
         <v>1001</v>
       </c>
       <c r="C397" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D397" t="s">
         <v>14</v>
@@ -45471,10 +46753,10 @@
         <v>1003</v>
       </c>
       <c r="C399" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D399" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E399">
         <v>26</v>
@@ -45908,7 +47190,7 @@
         <v>1003</v>
       </c>
       <c r="C418" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D418" t="s">
         <v>20</v>
@@ -46184,7 +47466,7 @@
         <v>1004</v>
       </c>
       <c r="C430" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D430" t="s">
         <v>20</v>
@@ -46207,10 +47489,10 @@
         <v>1001</v>
       </c>
       <c r="C431" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D431" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E431">
         <v>33</v>
@@ -46299,7 +47581,7 @@
         <v>1001</v>
       </c>
       <c r="C435" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D435" t="s">
         <v>14</v>
@@ -46345,10 +47627,10 @@
         <v>1005</v>
       </c>
       <c r="C437" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D437" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E437">
         <v>21</v>
@@ -46483,7 +47765,7 @@
         <v>1005</v>
       </c>
       <c r="C443" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D443" t="s">
         <v>20</v>
@@ -46644,7 +47926,7 @@
         <v>1002</v>
       </c>
       <c r="C450" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D450" t="s">
         <v>20</v>
@@ -46920,7 +48202,7 @@
         <v>1002</v>
       </c>
       <c r="C462" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D462" t="s">
         <v>14</v>
@@ -46966,7 +48248,7 @@
         <v>1002</v>
       </c>
       <c r="C464" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D464" t="s">
         <v>20</v>
@@ -47012,10 +48294,10 @@
         <v>1002</v>
       </c>
       <c r="C466" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D466" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E466">
         <v>38</v>
@@ -47035,7 +48317,7 @@
         <v>1003</v>
       </c>
       <c r="C467" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D467" t="s">
         <v>20</v>
@@ -47058,7 +48340,7 @@
         <v>1002</v>
       </c>
       <c r="C468" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D468" t="s">
         <v>20</v>
@@ -47173,7 +48455,7 @@
         <v>1005</v>
       </c>
       <c r="C473" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D473" t="s">
         <v>20</v>
@@ -47380,7 +48662,7 @@
         <v>1001</v>
       </c>
       <c r="C482" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D482" t="s">
         <v>20</v>
@@ -47403,7 +48685,7 @@
         <v>1004</v>
       </c>
       <c r="C483" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D483" t="s">
         <v>20</v>
@@ -47426,10 +48708,10 @@
         <v>1005</v>
       </c>
       <c r="C484" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D484" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E484">
         <v>29</v>
@@ -47495,7 +48777,7 @@
         <v>1004</v>
       </c>
       <c r="C487" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D487" t="s">
         <v>20</v>
@@ -47587,7 +48869,7 @@
         <v>1003</v>
       </c>
       <c r="C491" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D491" t="s">
         <v>14</v>
@@ -47633,7 +48915,7 @@
         <v>1004</v>
       </c>
       <c r="C493" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D493" t="s">
         <v>14</v>
@@ -47955,7 +49237,7 @@
         <v>1001</v>
       </c>
       <c r="C507" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D507" t="s">
         <v>14</v>
@@ -48047,7 +49329,7 @@
         <v>1001</v>
       </c>
       <c r="C511" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D511" t="s">
         <v>14</v>
@@ -48070,7 +49352,7 @@
         <v>1001</v>
       </c>
       <c r="C512" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D512" t="s">
         <v>14</v>
@@ -48093,7 +49375,7 @@
         <v>1001</v>
       </c>
       <c r="C513" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D513" t="s">
         <v>14</v>
@@ -48277,10 +49559,10 @@
         <v>1005</v>
       </c>
       <c r="C521" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D521" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E521">
         <v>25</v>
@@ -48300,7 +49582,7 @@
         <v>1001</v>
       </c>
       <c r="C522" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D522" t="s">
         <v>20</v>
@@ -48392,7 +49674,7 @@
         <v>1003</v>
       </c>
       <c r="C526" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D526" t="s">
         <v>14</v>
@@ -48668,10 +49950,10 @@
         <v>1005</v>
       </c>
       <c r="C538" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D538" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E538">
         <v>35</v>
@@ -48783,7 +50065,7 @@
         <v>1004</v>
       </c>
       <c r="C543" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D543" t="s">
         <v>20</v>
@@ -48898,10 +50180,10 @@
         <v>1001</v>
       </c>
       <c r="C548" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D548" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E548">
         <v>32</v>
@@ -48921,10 +50203,10 @@
         <v>1005</v>
       </c>
       <c r="C549" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D549" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E549">
         <v>26</v>
@@ -48944,7 +50226,7 @@
         <v>1001</v>
       </c>
       <c r="C550" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D550" t="s">
         <v>20</v>
@@ -48967,7 +50249,7 @@
         <v>1003</v>
       </c>
       <c r="C551" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D551" t="s">
         <v>20</v>
@@ -48990,10 +50272,10 @@
         <v>1001</v>
       </c>
       <c r="C552" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D552" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E552">
         <v>35</v>
@@ -49013,7 +50295,7 @@
         <v>1004</v>
       </c>
       <c r="C553" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D553" t="s">
         <v>14</v>
@@ -49289,7 +50571,7 @@
         <v>1002</v>
       </c>
       <c r="C565" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D565" t="s">
         <v>20</v>
@@ -49404,10 +50686,10 @@
         <v>1003</v>
       </c>
       <c r="C570" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D570" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E570">
         <v>24</v>
@@ -49427,7 +50709,7 @@
         <v>1005</v>
       </c>
       <c r="C571" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D571" t="s">
         <v>14</v>
@@ -49473,10 +50755,10 @@
         <v>1005</v>
       </c>
       <c r="C573" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D573" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E573">
         <v>44</v>
@@ -49496,7 +50778,7 @@
         <v>1005</v>
       </c>
       <c r="C574" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D574" t="s">
         <v>14</v>
@@ -49634,7 +50916,7 @@
         <v>1005</v>
       </c>
       <c r="C580" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D580" t="s">
         <v>14</v>
@@ -49726,7 +51008,7 @@
         <v>1004</v>
       </c>
       <c r="C584" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D584" t="s">
         <v>14</v>
@@ -49795,7 +51077,7 @@
         <v>1003</v>
       </c>
       <c r="C587" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D587" t="s">
         <v>20</v>
@@ -49818,10 +51100,10 @@
         <v>1005</v>
       </c>
       <c r="C588" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D588" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E588">
         <v>31</v>
@@ -49887,7 +51169,7 @@
         <v>1003</v>
       </c>
       <c r="C591" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D591" t="s">
         <v>14</v>
@@ -49910,7 +51192,7 @@
         <v>1005</v>
       </c>
       <c r="C592" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D592" t="s">
         <v>14</v>
@@ -50163,10 +51445,10 @@
         <v>1001</v>
       </c>
       <c r="C603" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D603" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E603">
         <v>33</v>
@@ -50485,7 +51767,7 @@
         <v>1004</v>
       </c>
       <c r="C617" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D617" t="s">
         <v>20</v>
@@ -50531,7 +51813,7 @@
         <v>1004</v>
       </c>
       <c r="C619" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D619" t="s">
         <v>20</v>
@@ -50646,10 +51928,10 @@
         <v>1002</v>
       </c>
       <c r="C624" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D624" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E624">
         <v>26</v>
@@ -50715,7 +51997,7 @@
         <v>1005</v>
       </c>
       <c r="C627" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D627" t="s">
         <v>14</v>
@@ -50807,10 +52089,10 @@
         <v>1003</v>
       </c>
       <c r="C631" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D631" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E631">
         <v>29</v>
@@ -50945,7 +52227,7 @@
         <v>1004</v>
       </c>
       <c r="C637" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D637" t="s">
         <v>14</v>
@@ -50968,7 +52250,7 @@
         <v>1002</v>
       </c>
       <c r="C638" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D638" t="s">
         <v>14</v>
@@ -51198,7 +52480,7 @@
         <v>1004</v>
       </c>
       <c r="C648" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D648" t="s">
         <v>20</v>
@@ -51290,7 +52572,7 @@
         <v>1005</v>
       </c>
       <c r="C652" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D652" t="s">
         <v>20</v>
@@ -51497,10 +52779,10 @@
         <v>1005</v>
       </c>
       <c r="C661" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D661" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E661">
         <v>35</v>
@@ -51543,7 +52825,7 @@
         <v>1004</v>
       </c>
       <c r="C663" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D663" t="s">
         <v>20</v>
@@ -51658,10 +52940,10 @@
         <v>1003</v>
       </c>
       <c r="C668" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D668" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E668">
         <v>26</v>
@@ -51727,7 +53009,7 @@
         <v>1001</v>
       </c>
       <c r="C671" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D671" t="s">
         <v>20</v>
@@ -51934,7 +53216,7 @@
         <v>1003</v>
       </c>
       <c r="C680" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D680" t="s">
         <v>14</v>
@@ -51980,7 +53262,7 @@
         <v>1003</v>
       </c>
       <c r="C682" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D682" t="s">
         <v>20</v>
@@ -52026,7 +53308,7 @@
         <v>1002</v>
       </c>
       <c r="C684" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D684" t="s">
         <v>14</v>
@@ -52164,7 +53446,7 @@
         <v>1003</v>
       </c>
       <c r="C690" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D690" t="s">
         <v>20</v>
@@ -52256,7 +53538,7 @@
         <v>1005</v>
       </c>
       <c r="C694" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D694" t="s">
         <v>20</v>
@@ -52325,10 +53607,10 @@
         <v>1002</v>
       </c>
       <c r="C697" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D697" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E697">
         <v>24</v>
@@ -52555,10 +53837,10 @@
         <v>1001</v>
       </c>
       <c r="C707" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D707" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E707">
         <v>34</v>
@@ -52670,10 +53952,10 @@
         <v>1005</v>
       </c>
       <c r="C712" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D712" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E712">
         <v>38</v>
@@ -53015,7 +54297,7 @@
         <v>1004</v>
       </c>
       <c r="C727" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D727" t="s">
         <v>14</v>
@@ -53038,10 +54320,10 @@
         <v>1005</v>
       </c>
       <c r="C728" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D728" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E728">
         <v>28</v>
@@ -53130,10 +54412,10 @@
         <v>1001</v>
       </c>
       <c r="C732" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D732" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E732">
         <v>28</v>
@@ -53153,10 +54435,10 @@
         <v>1003</v>
       </c>
       <c r="C733" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D733" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E733">
         <v>34</v>
@@ -53291,10 +54573,10 @@
         <v>1004</v>
       </c>
       <c r="C739" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D739" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E739">
         <v>35</v>
@@ -53314,7 +54596,7 @@
         <v>1004</v>
       </c>
       <c r="C740" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D740" t="s">
         <v>14</v>
@@ -53406,7 +54688,7 @@
         <v>1005</v>
       </c>
       <c r="C744" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D744" t="s">
         <v>14</v>
@@ -53475,7 +54757,7 @@
         <v>1002</v>
       </c>
       <c r="C747" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D747" t="s">
         <v>20</v>
@@ -53498,10 +54780,10 @@
         <v>1002</v>
       </c>
       <c r="C748" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D748" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E748">
         <v>28</v>
@@ -53544,7 +54826,7 @@
         <v>1003</v>
       </c>
       <c r="C750" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D750" t="s">
         <v>20</v>
@@ -53613,7 +54895,7 @@
         <v>1002</v>
       </c>
       <c r="C753" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D753" t="s">
         <v>14</v>
@@ -53751,7 +55033,7 @@
         <v>1003</v>
       </c>
       <c r="C759" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D759" t="s">
         <v>20</v>
@@ -53820,7 +55102,7 @@
         <v>1005</v>
       </c>
       <c r="C762" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D762" t="s">
         <v>14</v>
@@ -54234,7 +55516,7 @@
         <v>1005</v>
       </c>
       <c r="C780" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D780" t="s">
         <v>14</v>
@@ -54349,7 +55631,7 @@
         <v>1002</v>
       </c>
       <c r="C785" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D785" t="s">
         <v>20</v>
@@ -54441,10 +55723,10 @@
         <v>1005</v>
       </c>
       <c r="C789" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D789" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E789">
         <v>35</v>
@@ -54694,7 +55976,7 @@
         <v>1003</v>
       </c>
       <c r="C800" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D800" t="s">
         <v>20</v>
@@ -54832,7 +56114,7 @@
         <v>1004</v>
       </c>
       <c r="C806" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D806" t="s">
         <v>20</v>
@@ -54855,7 +56137,7 @@
         <v>1002</v>
       </c>
       <c r="C807" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D807" t="s">
         <v>20</v>
@@ -55016,7 +56298,7 @@
         <v>1004</v>
       </c>
       <c r="C814" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D814" t="s">
         <v>14</v>
@@ -55085,7 +56367,7 @@
         <v>1001</v>
       </c>
       <c r="C817" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D817" t="s">
         <v>20</v>
@@ -55108,7 +56390,7 @@
         <v>1003</v>
       </c>
       <c r="C818" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D818" t="s">
         <v>20</v>
@@ -55177,7 +56459,7 @@
         <v>1003</v>
       </c>
       <c r="C821" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D821" t="s">
         <v>14</v>
@@ -55591,7 +56873,7 @@
         <v>1003</v>
       </c>
       <c r="C839" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D839" t="s">
         <v>20</v>
@@ -55683,10 +56965,10 @@
         <v>1003</v>
       </c>
       <c r="C843" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D843" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E843">
         <v>28</v>
@@ -55752,7 +57034,7 @@
         <v>1003</v>
       </c>
       <c r="C846" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D846" t="s">
         <v>20</v>
@@ -55844,7 +57126,7 @@
         <v>1003</v>
       </c>
       <c r="C850" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D850" t="s">
         <v>20</v>
@@ -55936,7 +57218,7 @@
         <v>1002</v>
       </c>
       <c r="C854" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D854" t="s">
         <v>14</v>
@@ -56028,10 +57310,10 @@
         <v>1005</v>
       </c>
       <c r="C858" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D858" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E858">
         <v>33</v>
@@ -56074,7 +57356,7 @@
         <v>1004</v>
       </c>
       <c r="C860" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D860" t="s">
         <v>14</v>
@@ -56258,7 +57540,7 @@
         <v>1002</v>
       </c>
       <c r="C868" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D868" t="s">
         <v>20</v>
@@ -56396,7 +57678,7 @@
         <v>1001</v>
       </c>
       <c r="C874" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D874" t="s">
         <v>20</v>
@@ -56557,7 +57839,7 @@
         <v>1001</v>
       </c>
       <c r="C881" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D881" t="s">
         <v>20</v>
@@ -56603,7 +57885,7 @@
         <v>1004</v>
       </c>
       <c r="C883" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D883" t="s">
         <v>20</v>
@@ -56810,7 +58092,7 @@
         <v>1004</v>
       </c>
       <c r="C892" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D892" t="s">
         <v>20</v>
@@ -56948,7 +58230,7 @@
         <v>1004</v>
       </c>
       <c r="C898" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D898" t="s">
         <v>20</v>
@@ -57040,10 +58322,10 @@
         <v>1005</v>
       </c>
       <c r="C902" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D902" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E902">
         <v>26</v>
@@ -57201,7 +58483,7 @@
         <v>1001</v>
       </c>
       <c r="C909" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D909" t="s">
         <v>14</v>
@@ -57362,7 +58644,7 @@
         <v>1002</v>
       </c>
       <c r="C916" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D916" t="s">
         <v>20</v>
@@ -57408,7 +58690,7 @@
         <v>1003</v>
       </c>
       <c r="C918" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D918" t="s">
         <v>14</v>
@@ -57454,7 +58736,7 @@
         <v>1002</v>
       </c>
       <c r="C920" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D920" t="s">
         <v>20</v>
@@ -57500,10 +58782,10 @@
         <v>1005</v>
       </c>
       <c r="C922" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D922" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E922">
         <v>22</v>
@@ -57569,10 +58851,10 @@
         <v>1001</v>
       </c>
       <c r="C925" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D925" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E925">
         <v>45</v>
@@ -57592,7 +58874,7 @@
         <v>1002</v>
       </c>
       <c r="C926" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D926" t="s">
         <v>14</v>
@@ -57638,7 +58920,7 @@
         <v>1002</v>
       </c>
       <c r="C928" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D928" t="s">
         <v>20</v>
@@ -57730,10 +59012,10 @@
         <v>1005</v>
       </c>
       <c r="C932" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D932" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E932">
         <v>36</v>
@@ -57960,7 +59242,7 @@
         <v>1002</v>
       </c>
       <c r="C942" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D942" t="s">
         <v>14</v>
@@ -58029,7 +59311,7 @@
         <v>1004</v>
       </c>
       <c r="C945" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D945" t="s">
         <v>20</v>
@@ -58121,7 +59403,7 @@
         <v>1004</v>
       </c>
       <c r="C949" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D949" t="s">
         <v>20</v>
@@ -58213,7 +59495,7 @@
         <v>1001</v>
       </c>
       <c r="C953" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D953" t="s">
         <v>20</v>
@@ -58420,7 +59702,7 @@
         <v>1004</v>
       </c>
       <c r="C962" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D962" t="s">
         <v>14</v>
@@ -58650,10 +59932,10 @@
         <v>1002</v>
       </c>
       <c r="C972" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D972" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E972">
         <v>36</v>
@@ -58811,7 +60093,7 @@
         <v>1004</v>
       </c>
       <c r="C979" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D979" t="s">
         <v>20</v>
@@ -58903,10 +60185,10 @@
         <v>1001</v>
       </c>
       <c r="C983" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D983" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E983">
         <v>32</v>
@@ -58972,10 +60254,10 @@
         <v>1002</v>
       </c>
       <c r="C986" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D986" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E986">
         <v>32</v>
@@ -59018,7 +60300,7 @@
         <v>1004</v>
       </c>
       <c r="C988" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D988" t="s">
         <v>20</v>
@@ -59225,10 +60507,10 @@
         <v>1003</v>
       </c>
       <c r="C997" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D997" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E997">
         <v>31</v>
@@ -59317,7 +60599,7 @@
         <v>1005</v>
       </c>
       <c r="C1001" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D1001" t="s">
         <v>14</v>
@@ -59333,24 +60615,26 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G1001" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:B63"/>
+  <dimension ref="A3:B72"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="O58" sqref="O58"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="31" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="31" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="32" max="58" width="6.453125" bestFit="1" customWidth="1"/>
     <col min="59" max="89" width="6.90625" bestFit="1" customWidth="1"/>
     <col min="90" max="119" width="6.453125" bestFit="1" customWidth="1"/>
@@ -59364,10 +60648,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -59388,7 +60672,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>2242</v>
@@ -59436,7 +60720,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B12" s="4">
         <v>1893</v>
@@ -59460,7 +60744,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B15" s="4">
         <v>1786</v>
@@ -59492,7 +60776,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" s="4">
         <v>29899</v>
@@ -59500,63 +60784,63 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
         <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B22" s="4">
-        <v>1893</v>
+        <v>12334</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B23" s="4">
-        <v>12334</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B24" s="4">
-        <v>4220</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B25" s="4">
-        <v>4037</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B26" s="4">
-        <v>3869</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4">
-        <v>3546</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" s="4">
         <v>29899</v>
@@ -59567,15 +60851,15 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
         <v>30</v>
-      </c>
-      <c r="B39" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -59596,7 +60880,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B42" s="4">
         <v>29899</v>
@@ -59604,15 +60888,15 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" t="s">
         <v>30</v>
-      </c>
-      <c r="B53" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B54" s="4">
         <v>3921</v>
@@ -59620,7 +60904,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B55" s="4">
         <v>3449</v>
@@ -59628,7 +60912,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B56" s="4">
         <v>3663</v>
@@ -59636,7 +60920,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B57" s="4">
         <v>3462</v>
@@ -59644,7 +60928,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B58" s="4">
         <v>3316</v>
@@ -59652,7 +60936,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B59" s="4">
         <v>4366</v>
@@ -59660,7 +60944,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B60" s="4">
         <v>4200</v>
@@ -59668,7 +60952,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B61" s="4">
         <v>3361</v>
@@ -59676,7 +60960,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B62" s="4">
         <v>161</v>
@@ -59684,86 +60968,44 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B63" s="4">
         <v>29899</v>
       </c>
     </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="4">
+        <v>29899</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B2921C-7FC7-4515-B992-A3DAEE7DFD97}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M3"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId3"/>
+        <x14:slicer r:id="rId2"/>
       </x14:slicerList>
     </ext>
   </extLst>
